--- a/pH Blueprint.xlsx
+++ b/pH Blueprint.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\School Files\AguaClara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E4FF6D-D900-4EFB-9FFD-BC294C47E71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93B70D3-4774-407C-ADFE-327BE7BF52CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{088C5C68-BE7B-419B-85A1-88D2F17A95DB}"/>
   </bookViews>
@@ -41,12 +41,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -141,17 +147,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,16 +180,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>128686</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>372525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128687</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>263996</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>507835</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171416</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -197,7 +204,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190929" y="4202182"/>
+          <a:off x="1488893" y="171416"/>
           <a:ext cx="856288" cy="555477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -248,16 +255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>171415</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>164292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>430494</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>164292</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -272,8 +279,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1836420" y="190500"/>
-          <a:ext cx="868680" cy="548640"/>
+          <a:off x="2621209" y="164292"/>
+          <a:ext cx="871528" cy="555477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -333,16 +340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>131677</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10611</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>174761</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>345036</xdr:colOff>
+      <xdr:rowOff>167639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223971</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>182381</xdr:rowOff>
+      <xdr:rowOff>175259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -357,7 +364,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3193920" y="174761"/>
+          <a:off x="3685303" y="167639"/>
           <a:ext cx="825808" cy="563097"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -408,16 +415,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>553504</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>556830</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128687</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76366</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>79691</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69307</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -429,14 +436,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="12" idx="2"/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3615747" y="3907793"/>
-          <a:ext cx="3326" cy="294389"/>
+        <a:xfrm flipH="1">
+          <a:off x="1913712" y="726893"/>
+          <a:ext cx="3325" cy="638526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -464,16 +471,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>442963</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>455396</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584004</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>164292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>607179</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>12834</xdr:rowOff>
+      <xdr:rowOff>48442</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -490,9 +497,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2277779" y="729515"/>
-          <a:ext cx="12433" cy="546635"/>
+        <a:xfrm flipH="1">
+          <a:off x="3033798" y="719769"/>
+          <a:ext cx="23175" cy="624785"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -520,16 +527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>540364</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419299</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>182381</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>544581</xdr:colOff>
+      <xdr:rowOff>175259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>423515</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>4746</xdr:rowOff>
+      <xdr:rowOff>47475</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -547,8 +554,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3602607" y="737858"/>
-          <a:ext cx="4217" cy="563000"/>
+          <a:off x="4093991" y="730736"/>
+          <a:ext cx="4216" cy="612851"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -576,16 +583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27673</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>155860</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>12834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>271513</xdr:colOff>
+      <xdr:rowOff>48442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>399699</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>12834</xdr:rowOff>
+      <xdr:rowOff>48442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -600,8 +607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1862489" y="1276150"/>
-          <a:ext cx="855445" cy="541421"/>
+          <a:off x="2605654" y="1344554"/>
+          <a:ext cx="856288" cy="555477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -641,15 +648,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>112220</xdr:colOff>
+      <xdr:colOff>603604</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>4746</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>356059</xdr:colOff>
+      <xdr:rowOff>47475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234995</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>4746</xdr:rowOff>
+      <xdr:rowOff>47475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -664,7 +671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3174463" y="1300858"/>
+          <a:off x="3665847" y="1343587"/>
           <a:ext cx="856288" cy="555477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -704,16 +711,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>124938</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19456</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>369621</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19457</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>260249</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504932</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69307</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -728,7 +735,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3187181" y="3352316"/>
+          <a:off x="1485146" y="1365419"/>
           <a:ext cx="857132" cy="555477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -779,16 +786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>549708</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65448</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>89305</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>368016</xdr:colOff>
+      <xdr:rowOff>53697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>496204</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114292</xdr:rowOff>
+      <xdr:rowOff>78684</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -803,7 +810,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1774605" y="2681529"/>
+          <a:off x="2515242" y="2645921"/>
           <a:ext cx="1043205" cy="580464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -854,16 +861,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>368016</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>459886</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9219</xdr:rowOff>
+      <xdr:colOff>496204</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317455</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158770</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -881,8 +888,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2817810" y="2970163"/>
-          <a:ext cx="704319" cy="1598"/>
+          <a:off x="3558447" y="2920313"/>
+          <a:ext cx="433700" cy="15840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -910,16 +917,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>467241</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>517091</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>93078</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>459621</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>169278</xdr:rowOff>
+      <xdr:rowOff>121564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>509470</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12605</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -934,7 +941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4754381" y="3240779"/>
+          <a:off x="6029128" y="3269265"/>
           <a:ext cx="1217277" cy="261359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -985,16 +992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495229</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>537958</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>52202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>502849</xdr:colOff>
+      <xdr:rowOff>9473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>545577</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>145920</xdr:rowOff>
+      <xdr:rowOff>103191</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1009,7 +1016,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4782369" y="2829585"/>
+          <a:off x="6049995" y="2786856"/>
           <a:ext cx="1232517" cy="278877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1049,16 +1056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>459886</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317455</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>107820</xdr:rowOff>
+      <xdr:rowOff>57970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>22697</xdr:colOff>
+      <xdr:colOff>492715</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>92580</xdr:rowOff>
+      <xdr:rowOff>42730</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1073,7 +1080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3522129" y="2885203"/>
+          <a:off x="3992147" y="2835353"/>
           <a:ext cx="175260" cy="169919"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1107,16 +1114,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>540364</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>405085</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>4746</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>547516</xdr:colOff>
+      <xdr:rowOff>47475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419299</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>107820</xdr:rowOff>
+      <xdr:rowOff>57970</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1134,9 +1141,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3602607" y="1856335"/>
-          <a:ext cx="7152" cy="1028868"/>
+        <a:xfrm flipH="1">
+          <a:off x="4079777" y="1899064"/>
+          <a:ext cx="14214" cy="936289"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1165,15 +1172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>22697</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6482</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495229</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:colOff>492715</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>306223</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149053</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1186,13 +1193,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="65" idx="6"/>
-          <a:endCxn id="56" idx="1"/>
+          <a:endCxn id="79" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3697389" y="2969024"/>
-          <a:ext cx="1084980" cy="1139"/>
+        <a:xfrm>
+          <a:off x="4167407" y="2920313"/>
+          <a:ext cx="1038405" cy="6123"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1220,16 +1227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>227887</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>21365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>467240</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>517092</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>537959</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38599</xdr:rowOff>
+      <xdr:rowOff>67085</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1241,16 +1248,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="1"/>
           <a:endCxn id="55" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4440928" y="3058006"/>
-          <a:ext cx="387552" cy="239353"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6029129" y="2926295"/>
+          <a:ext cx="20867" cy="473650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1195510"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -1272,16 +1282,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>459622</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7122</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>598207</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>509470</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>545577</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38599</xdr:rowOff>
+      <xdr:rowOff>67085</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1293,16 +1303,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
           <a:endCxn id="55" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5840054" y="3101269"/>
-          <a:ext cx="401795" cy="138585"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm flipH="1">
+          <a:off x="7246405" y="2926295"/>
+          <a:ext cx="36107" cy="473650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -633118"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -1324,16 +1337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>502849</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>545577</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>42730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>322816</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6482</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148912</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1351,8 +1364,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6014886" y="2449795"/>
-          <a:ext cx="5332005" cy="519229"/>
+          <a:off x="7282512" y="2449795"/>
+          <a:ext cx="4064379" cy="476500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1537,94 +1550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>64449</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>74063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>422589</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>167782</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="Rectangle 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F680EA-1C6A-4850-B60E-1D4D475A9599}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8638729" y="999857"/>
-          <a:ext cx="970589" cy="278878"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Bypass</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:colOff>511486</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>440271</xdr:colOff>
+      <xdr:colOff>254349</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>16982</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>183134</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>141592</xdr:rowOff>
+      <xdr:rowOff>56134</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1639,7 +1574,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10851897" y="3905318"/>
+          <a:off x="9698215" y="3449542"/>
           <a:ext cx="967760" cy="494928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1826,9 +1761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>313096</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>179035</xdr:rowOff>
+      <xdr:colOff>320218</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>164792</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1847,7 +1782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8263997" y="623915"/>
-          <a:ext cx="10931" cy="666073"/>
+          <a:ext cx="18053" cy="836989"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1876,79 +1811,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>400727</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>534113</xdr:colOff>
+      <xdr:colOff>232588</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>78836</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="Connector: Elbow 147">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57C83D5-F5DA-44D8-AAB9-E2E86A65C809}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="155" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="8362559" y="370318"/>
-          <a:ext cx="1358283" cy="1004630"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -333"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:rowOff>164792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>225467</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>37503</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400727</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25849</xdr:rowOff>
+      <xdr:colOff>407848</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149552</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="Oval 153">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89F4E7F-8BB6-4A37-AA68-C9A7FE155B85}"/>
+        <xdr:cNvPr id="155" name="Oval 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADA7733-958A-4C69-A01E-82C19454DAAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,8 +1834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8187299" y="1889092"/>
-          <a:ext cx="175260" cy="173505"/>
+          <a:off x="8194420" y="1460904"/>
+          <a:ext cx="175260" cy="169919"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1991,73 +1869,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>225466</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>179035</xdr:rowOff>
+      <xdr:colOff>320218</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>400726</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>163795</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="Oval 154">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADA7733-958A-4C69-A01E-82C19454DAAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8187298" y="1289988"/>
-          <a:ext cx="175260" cy="169919"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>313096</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>163795</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>313097</xdr:colOff>
+      <xdr:colOff>327588</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>37503</xdr:rowOff>
+      <xdr:rowOff>113945</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2071,13 +1891,13 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="155" idx="4"/>
-          <a:endCxn id="154" idx="0"/>
+          <a:endCxn id="9" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8274928" y="1459907"/>
-          <a:ext cx="1" cy="429185"/>
+          <a:off x="8282050" y="1630823"/>
+          <a:ext cx="7370" cy="334711"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2255,16 +2075,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400727</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>92579</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>82219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>599031</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>124256</xdr:rowOff>
+      <xdr:colOff>599032</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2277,13 +2097,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="168" idx="1"/>
-          <a:endCxn id="154" idx="6"/>
+          <a:endCxn id="47" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9081627" y="659263"/>
-          <a:ext cx="597514" cy="2035650"/>
+          <a:off x="10059687" y="1210401"/>
+          <a:ext cx="170593" cy="506453"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2365,255 +2185,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14241</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128186</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>372382</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>36746</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="359" name="Rectangle 358">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95DAF47-BC53-4DDA-8AF3-B0A11EEBC074}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6751176" y="1609457"/>
-          <a:ext cx="970589" cy="278878"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Bypass</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>306227</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>124256</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>225467</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>21368</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="372" name="Connector: Elbow 371">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8F933B-26F0-4EA6-8284-CCD137B13994}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="154" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6430713" y="1975845"/>
-          <a:ext cx="1756586" cy="1008065"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 539"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>547516</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>92580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>553504</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19456</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="383" name="Straight Arrow Connector 382">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2DEF54-6163-4868-9BA8-B74F62EED6F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="0"/>
-          <a:endCxn id="65" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3609759" y="3055122"/>
-          <a:ext cx="5988" cy="297194"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>455816</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>458861</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>89305</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="394" name="Connector: Elbow 393">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC9DBBF-6C70-4CE4-92A4-DDC6AD350649}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
-          <a:endCxn id="15" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1886132" y="2271453"/>
-          <a:ext cx="817106" cy="3045"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
@@ -2677,15 +2248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>299101</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85459</xdr:rowOff>
+      <xdr:colOff>291980</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>113945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>370318</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>149551</xdr:rowOff>
+      <xdr:colOff>363197</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2700,7 +2271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7648484" y="3233160"/>
+          <a:off x="7641363" y="1965534"/>
           <a:ext cx="1296114" cy="434410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2750,15 +2321,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>562597</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>99701</xdr:rowOff>
+      <xdr:colOff>249251</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>405924</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64093</xdr:rowOff>
+      <xdr:colOff>92578</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>49849</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2773,7 +2344,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9136877" y="3988037"/>
+          <a:off x="8823531" y="1381569"/>
           <a:ext cx="1068225" cy="334710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2820,37 +2391,94 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>405924</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>79287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>440271</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>81897</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>407848</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>64593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>249251</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41A3BF6-5168-43E4-9A51-2AF95149F858}"/>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24D0898-4A88-4A74-8586-DD4D7DED89C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="3"/>
+          <a:stCxn id="47" idx="1"/>
+          <a:endCxn id="155" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8369680" y="1545864"/>
+          <a:ext cx="453851" cy="3060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327587</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>511485</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178987</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Connector: Elbow 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D9640A-3B71-4D43-8F82-FC2401BB6E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="9" idx="2"/>
           <a:endCxn id="131" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10205102" y="4152782"/>
-          <a:ext cx="646795" cy="2610"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8345286" y="2344077"/>
+          <a:ext cx="1297062" cy="1408795"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -2876,35 +2504,110 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>313097</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>569721</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>170916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170632</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE6202A5-2C42-4868-B4DC-129DBFFC5C9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4856861" y="170916"/>
+          <a:ext cx="825808" cy="563097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Acid/Base</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Stock</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584004</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586133</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>25849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>334709</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85459</xdr:rowOff>
+      <xdr:rowOff>156673</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24D0898-4A88-4A74-8586-DD4D7DED89C0}"/>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF427E9-1F26-43D8-8088-DBB0747332DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="154" idx="4"/>
-          <a:endCxn id="9" idx="0"/>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="64" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8274929" y="2062597"/>
-          <a:ext cx="21612" cy="1170563"/>
+          <a:off x="3033798" y="1900031"/>
+          <a:ext cx="2129" cy="293390"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2932,37 +2635,451 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>334709</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>149551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>562597</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>81897</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>591084</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>49850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>191995</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C1AA90-2FA0-4825-9A00-5A24B33FCBEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4878224" y="1345962"/>
+          <a:ext cx="825808" cy="563097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Acid/Base</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Pump</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370176</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>391539</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>49850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Connector: Elbow 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D9640A-3B71-4D43-8F82-FC2401BB6E5A}"/>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269CD407-2045-495D-B56C-7342733BCA22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="47" idx="1"/>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="76" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5269765" y="734013"/>
+          <a:ext cx="21363" cy="611949"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>391539</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393853</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64093</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Arrow Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A77DDD7-B21F-4F39-A833-2F6F3FEBC77A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+          <a:endCxn id="79" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5291128" y="1909059"/>
+          <a:ext cx="2314" cy="932417"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>306223</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>481483</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Oval 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D5C2C2-C75D-4830-ADB8-DD9731626F94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5205812" y="2841476"/>
+          <a:ext cx="175260" cy="169919"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>481483</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>537958</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149053</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="Straight Arrow Connector 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143E1083-ECBB-4E90-994C-B81C8D4B1C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="6"/>
+          <a:endCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5381072" y="2926295"/>
+          <a:ext cx="668923" cy="141"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76366</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>498503</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56473</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Connector: Elbow 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D095D4EA-5701-4526-84AC-2C3086AF7BED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="64" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8472798" y="3491313"/>
-          <a:ext cx="487822" cy="840336"/>
+          <a:off x="2252262" y="1582345"/>
+          <a:ext cx="357485" cy="1034585"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>498503</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61314</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>141433</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Oval 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0944F9BF-4816-4EBB-A8EF-665A63C080F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948297" y="2193421"/>
+          <a:ext cx="175260" cy="169919"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586133</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>141433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>587051</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53697</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Arrow Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729C9496-D8FC-4936-88E4-5DF3BA84E4CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="4"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3035927" y="2363340"/>
+          <a:ext cx="918" cy="282581"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -3286,580 +3403,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A0D73F-2EAE-4ECB-B657-843CB05130D5}">
-  <dimension ref="C1:U27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="107" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="3"/>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="6"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="7"/>
     </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="6"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="6"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="6"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="6"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="6"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="6"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="6"/>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="6"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="6"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="6"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="6"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="6"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="6"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="6"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="6"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="6"/>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="6"/>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="6"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="6"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="6"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="6"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="6"/>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="6"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="6"/>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="9"/>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
